--- a/Stats.xlsx
+++ b/Stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tulim\Works\PinCFGReconstructor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9BDA632-7989-48B8-B6AE-04529B364007}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{753B9A35-78B5-4178-8C06-44162D751645}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13680" windowHeight="11633" activeTab="2" xr2:uid="{F17CFCD1-AFB6-4BDF-A364-48B56F7E9189}"/>
   </bookViews>
@@ -18,7 +18,6 @@
     <sheet name="Thread Flushed" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="179017"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="18">
   <si>
     <t>Command</t>
   </si>
@@ -55,9 +54,6 @@
   </si>
   <si>
     <t>SSD (fast I/O)</t>
-  </si>
-  <si>
-    <t>USB (slow (I/O)</t>
   </si>
   <si>
     <t>Original</t>
@@ -452,7 +448,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -473,10 +469,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
@@ -508,7 +504,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" s="2">
         <v>0</v>
@@ -516,9 +512,9 @@
       <c r="D4">
         <v>0</v>
       </c>
-      <c r="E4" s="2" t="e">
+      <c r="E4" s="2">
         <f>C4/B4</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
@@ -526,7 +522,7 @@
         <v>2</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" s="2">
         <v>0</v>
@@ -534,9 +530,9 @@
       <c r="D5">
         <v>0</v>
       </c>
-      <c r="E5" s="2" t="e">
+      <c r="E5" s="2">
         <f>C5/B5</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
@@ -545,7 +541,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C7" s="2"/>
       <c r="E7" s="2"/>
@@ -555,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>1</v>
@@ -590,7 +586,7 @@
         <v>4</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" s="2">
         <v>0</v>
@@ -598,9 +594,9 @@
       <c r="D10">
         <v>0</v>
       </c>
-      <c r="E10" s="2" t="e">
+      <c r="E10" s="2">
         <f>C10/B10</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
@@ -608,7 +604,7 @@
         <v>2</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" s="2">
         <v>0</v>
@@ -616,14 +612,14 @@
       <c r="D11">
         <v>0</v>
       </c>
-      <c r="E11" s="2" t="e">
+      <c r="E11" s="2">
         <f>C11/B11</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -632,7 +628,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -656,22 +652,22 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
@@ -691,11 +687,11 @@
         <v>826</v>
       </c>
       <c r="F3" s="2">
-        <f>C3/B3</f>
+        <f t="shared" ref="F3:G5" si="0">C3/B3</f>
         <v>44.698113207547166</v>
       </c>
       <c r="G3" s="2">
-        <f>D3/C3</f>
+        <f t="shared" si="0"/>
         <v>0.98883729656207497</v>
       </c>
     </row>
@@ -704,7 +700,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" s="2">
         <v>0</v>
@@ -713,12 +709,12 @@
       <c r="E4">
         <v>0</v>
       </c>
-      <c r="F4" s="2" t="e">
-        <f>C4/B4</f>
-        <v>#DIV/0!</v>
+      <c r="F4" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="G4" s="2" t="e">
-        <f>D4/C4</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -727,7 +723,7 @@
         <v>2</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" s="2">
         <v>0</v>
@@ -736,12 +732,12 @@
       <c r="E5">
         <v>0</v>
       </c>
-      <c r="F5" s="2" t="e">
-        <f>C5/B5</f>
-        <v>#DIV/0!</v>
+      <c r="F5" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="G5" s="2" t="e">
-        <f>D5/C5</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -763,22 +759,22 @@
         <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
@@ -811,7 +807,7 @@
         <v>4</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" s="2">
         <v>0</v>
@@ -820,13 +816,13 @@
       <c r="E10">
         <v>0</v>
       </c>
-      <c r="F10" s="2" t="e">
+      <c r="F10" s="2">
         <f>C10/B10</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G10" s="2" t="e">
-        <f t="shared" ref="G10:G11" si="0">D10/B10</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" ref="G10:G11" si="1">D10/B10</f>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
@@ -834,7 +830,7 @@
         <v>2</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" s="2">
         <v>0</v>
@@ -843,17 +839,18 @@
       <c r="E11">
         <v>0</v>
       </c>
-      <c r="F11" s="2" t="e">
+      <c r="F11" s="2">
         <f>C11/B11</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G11" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -862,7 +859,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -886,22 +883,22 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
@@ -921,11 +918,11 @@
         <v>826</v>
       </c>
       <c r="F3" s="2">
-        <f>C3/B3</f>
+        <f t="shared" ref="F3:G5" si="0">C3/B3</f>
         <v>39.838574423480082</v>
       </c>
       <c r="G3" s="2">
-        <f>D3/C3</f>
+        <f t="shared" si="0"/>
         <v>1.1169815292322265</v>
       </c>
     </row>
@@ -933,14 +930,17 @@
       <c r="A4" t="s">
         <v>4</v>
       </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
-      <c r="F4" s="2" t="e">
-        <f>C4/B4</f>
-        <v>#DIV/0!</v>
+      <c r="F4" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="G4" s="2" t="e">
-        <f>D4/C4</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -948,17 +948,20 @@
       <c r="A5" t="s">
         <v>2</v>
       </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5">
         <v>0</v>
       </c>
-      <c r="F5" s="2" t="e">
-        <f>C5/B5</f>
-        <v>#DIV/0!</v>
+      <c r="F5" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="G5" s="2" t="e">
-        <f>D5/C5</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -980,22 +983,22 @@
         <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
@@ -1027,41 +1030,47 @@
       <c r="A10" t="s">
         <v>4</v>
       </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10">
         <v>0</v>
       </c>
-      <c r="F10" s="2" t="e">
+      <c r="F10" s="2">
         <f>C10/B10</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G10" s="2" t="e">
-        <f t="shared" ref="G10:G11" si="0">D10/B10</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" ref="G10:G11" si="1">D10/B10</f>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>2</v>
       </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11">
         <v>0</v>
       </c>
-      <c r="F11" s="2" t="e">
+      <c r="F11" s="2">
         <f>C11/B11</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G11" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="F10" evalError="1"/>
   </ignoredErrors>
